--- a/data/trans_camb/P57_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Dificultad-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.690069274194927</v>
+        <v>8.690069274194922</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>10.25439903743574</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.284350311915659</v>
+        <v>2.748373150946502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.285349509337469</v>
+        <v>6.330972919163728</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.114426568664891</v>
+        <v>5.919713420770859</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.71315986813113</v>
+        <v>14.03170076608158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.29528798694116</v>
+        <v>14.34790032676294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.00027430117165</v>
+        <v>13.01782489399237</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.3721211525838987</v>
+        <v>0.3721211525838984</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>0.5211963206069724</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.126906613691893</v>
+        <v>0.1110465642648052</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3018587985613765</v>
+        <v>0.302025892472458</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2894617650615539</v>
+        <v>0.270165411375848</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6773848377596973</v>
+        <v>0.6331441057489751</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7772882825060236</v>
+        <v>0.7862260222404801</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6568544045813152</v>
+        <v>0.6337217057047446</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.15912524795493</v>
+        <v>14.49394781814984</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.741706468805207</v>
+        <v>8.361265458966789</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.8803310354544</v>
+        <v>12.64955256672503</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.46056276458283</v>
+        <v>24.15227682505841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.48992706470828</v>
+        <v>16.29555822418462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.91875475040236</v>
+        <v>18.73645668896139</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.7006965549994749</v>
+        <v>0.7006965549994747</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.4505806696166781</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.5031411357552155</v>
+        <v>0.473193692788673</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2933871750886987</v>
+        <v>0.275924180661077</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.440617712371724</v>
+        <v>0.4289902195976721</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9303039056153991</v>
+        <v>0.9254387309475314</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.6521032051529756</v>
+        <v>0.6515074778298466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.729985262035752</v>
+        <v>0.7129018306172377</v>
       </c>
     </row>
     <row r="16">
@@ -779,10 +779,10 @@
         <v>14.71012371371469</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>13.59800696125341</v>
+        <v>13.59800696125342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14.04959972464626</v>
+        <v>14.04959972464627</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>9.516965971256344</v>
+        <v>9.854419160571961</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.982423466713174</v>
+        <v>9.314407617702534</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.9027252180026</v>
+        <v>10.48664632708706</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.78766595046086</v>
+        <v>19.33585282309549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.7669141545063</v>
+        <v>17.53475816455034</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.25612004479843</v>
+        <v>17.02461458880304</v>
       </c>
     </row>
     <row r="19">
@@ -830,10 +830,10 @@
         <v>0.4279636378893185</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.4876739342407194</v>
+        <v>0.4876739342407199</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4498506442566514</v>
+        <v>0.4498506442566516</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2569873949494624</v>
+        <v>0.2600118183396878</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.290466251979016</v>
+        <v>0.3089085863900339</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3244346991340368</v>
+        <v>0.3199174305967681</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5895185705778592</v>
+        <v>0.6051544391291434</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7074414753491127</v>
+        <v>0.6984268540123705</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5895426099671099</v>
+        <v>0.5789742291779432</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>5.239694547522367</v>
+        <v>5.239694547522361</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>11.38951108041377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8.248958726168098</v>
+        <v>8.248958726168109</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6396976091941765</v>
+        <v>-0.4543405548533631</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.081368657107684</v>
+        <v>6.287135209669542</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.264689100494333</v>
+        <v>4.342188878684077</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.28645017009798</v>
+        <v>11.22419883581733</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.64326236023576</v>
+        <v>17.10547590132834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.79651991754603</v>
+        <v>12.19354558500561</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.1188691641035511</v>
+        <v>0.118869164103551</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.2946354496746876</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.199152031436988</v>
+        <v>0.1991520314369883</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01507127135202903</v>
+        <v>-0.009541809487032708</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1438225518968161</v>
+        <v>0.1463439656005143</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09505275516861711</v>
+        <v>0.09906886089986235</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2750649798448328</v>
+        <v>0.2776029772333922</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4786825621688718</v>
+        <v>0.4894434959318723</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3036579192566138</v>
+        <v>0.3153589043279895</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>14.85014654084565</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15.35763436056288</v>
+        <v>15.35763436056289</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.61004226597782</v>
+        <v>13.42131836962452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>12.51408118917167</v>
+        <v>12.64787048311529</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13.75579853424166</v>
+        <v>13.70519785948592</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.30742919595751</v>
+        <v>18.38099018100672</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.95945592166091</v>
+        <v>16.99872479112243</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>16.93272898616263</v>
+        <v>17.08761980010704</v>
       </c>
     </row>
     <row r="31">
@@ -1045,7 +1045,7 @@
         <v>0.5636078126197386</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.5416053969579046</v>
+        <v>0.541605396957905</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4297803742039904</v>
+        <v>0.4227753423482475</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4519626978001469</v>
+        <v>0.4671483024285435</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4740238226635675</v>
+        <v>0.4713167880702794</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6277757798201427</v>
+        <v>0.6202023632261274</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6804181483263032</v>
+        <v>0.6818608822581359</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6206189516797674</v>
+        <v>0.6221554894354965</v>
       </c>
     </row>
     <row r="34">
